--- a/data/top_stocks_code.xlsx
+++ b/data/top_stocks_code.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/163ffede54c26867/Desktop/Stock price pred/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\PRAXIS\Projects\Stock_Price_Prediction_Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_570D32A5D3205652933A3C11595ED87656CD81C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE54EF97-BB79-4B06-90DD-F07E7779780F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A2935-355A-4908-A13F-82E638FA3F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
   <si>
     <t>Sector</t>
   </si>
@@ -51,288 +40,540 @@
     <t>Mahindra &amp; Mahindra Ltd.</t>
   </si>
   <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
     <t>Maruti Suzuki India Ltd.</t>
   </si>
   <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
     <t>Bajaj Auto Ltd.</t>
   </si>
   <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
     <t>Eicher Motors Ltd.</t>
   </si>
   <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
     <t>Tata Motors Passenger Vehicles Ltd.</t>
   </si>
   <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
     <t>TVS Motor Company Ltd.</t>
   </si>
   <si>
+    <t>TVSMOTOR</t>
+  </si>
+  <si>
     <t>Hero MotoCorp Ltd.</t>
   </si>
   <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
     <t>Dummy Tata Motors Ltd.</t>
   </si>
   <si>
     <t>Samvardhana Motherson International Ltd.</t>
   </si>
   <si>
+    <t>MOTHERSON</t>
+  </si>
+  <si>
     <t>Ashok Leyland Ltd.</t>
   </si>
   <si>
+    <t>ASHOKLEY</t>
+  </si>
+  <si>
     <t>Chemicals</t>
   </si>
   <si>
     <t>Pidilite Industries Ltd.</t>
   </si>
   <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
     <t>SRF Ltd.</t>
   </si>
   <si>
+    <t>SRF</t>
+  </si>
+  <si>
     <t>UPL Ltd.</t>
   </si>
   <si>
+    <t>UPL</t>
+  </si>
+  <si>
     <t>Solar Industries India Ltd.</t>
   </si>
   <si>
+    <t>SOLARINDS</t>
+  </si>
+  <si>
     <t>PI Industries Ltd.</t>
   </si>
   <si>
+    <t>PIIND</t>
+  </si>
+  <si>
     <t>Coromandel International Ltd.</t>
   </si>
   <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
     <t>Navin Fluorine International Ltd.</t>
   </si>
   <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
     <t>Gujarat Fluorochemicals Ltd.</t>
   </si>
   <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
     <t>Tata Chemicals Ltd.</t>
   </si>
   <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
     <t>Linde India Ltd.</t>
   </si>
   <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
     <t>FMCG</t>
   </si>
   <si>
     <t>ITC Ltd.</t>
   </si>
   <si>
+    <t>ITC</t>
+  </si>
+  <si>
     <t>Hindustan Unilever Ltd.</t>
   </si>
   <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
     <t>Nestle India Ltd.</t>
   </si>
   <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
     <t>Tata Consumer Products Ltd.</t>
   </si>
   <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
     <t>Britannia Industries Ltd.</t>
   </si>
   <si>
+    <t>BRITANNIA</t>
+  </si>
+  <si>
     <t>Varun Beverages Ltd.</t>
   </si>
   <si>
+    <t>VBL</t>
+  </si>
+  <si>
     <t>Godrej Consumer Products Ltd.</t>
   </si>
   <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
     <t>United Spirits Ltd.</t>
   </si>
   <si>
+    <t>MCDOWELL-N</t>
+  </si>
+  <si>
     <t>Marico Ltd.</t>
   </si>
   <si>
+    <t>MARICO</t>
+  </si>
+  <si>
     <t>Colgate Palmolive (India) Ltd.</t>
   </si>
   <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
     <t>Sun Pharmaceutical Industries Ltd.</t>
   </si>
   <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
     <t>Divi's Laboratories Ltd.</t>
   </si>
   <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
     <t>Max Healthcare Institute Ltd.</t>
   </si>
   <si>
+    <t>MAXHEALTH</t>
+  </si>
+  <si>
     <t>Cipla Ltd.</t>
   </si>
   <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
     <t>Apollo Hospitals Enterprise Ltd.</t>
   </si>
   <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
     <t>Dr. Reddy's Laboratories Ltd.</t>
   </si>
   <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
     <t>Fortis Healthcare Ltd.</t>
   </si>
   <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
     <t>Lupin Ltd.</t>
   </si>
   <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
     <t>Torrent Pharmaceuticals Ltd.</t>
   </si>
   <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
     <t>Laurus Labs Ltd.</t>
   </si>
   <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
     <t>Infosys Ltd.</t>
   </si>
   <si>
+    <t>INFY</t>
+  </si>
+  <si>
     <t>Tata Consultancy Services Ltd.</t>
   </si>
   <si>
+    <t>TCS</t>
+  </si>
+  <si>
     <t>HCL Technologies Ltd.</t>
   </si>
   <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
     <t>Tech Mahindra Ltd.</t>
   </si>
   <si>
+    <t>TECHM</t>
+  </si>
+  <si>
     <t>Wipro Ltd.</t>
   </si>
   <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
     <t>Persistent Systems Ltd.</t>
   </si>
   <si>
+    <t>PERSISTENT</t>
+  </si>
+  <si>
     <t>Coforge Ltd.</t>
   </si>
   <si>
+    <t>COFORGE</t>
+  </si>
+  <si>
     <t>LTIMindtree Ltd.</t>
   </si>
   <si>
+    <t>LTIM</t>
+  </si>
+  <si>
     <t>MphasiS Ltd.</t>
   </si>
   <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
     <t>Oracle Financial Services Software Ltd.</t>
   </si>
   <si>
+    <t>OFSS</t>
+  </si>
+  <si>
     <t>Media</t>
   </si>
   <si>
     <t>Zee Entertainment Enterprises Ltd.</t>
   </si>
   <si>
+    <t>ZEEL</t>
+  </si>
+  <si>
     <t>PVR INOX Ltd.</t>
   </si>
   <si>
+    <t>PVRINOX</t>
+  </si>
+  <si>
     <t>Sun TV Network Ltd.</t>
   </si>
   <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
     <t>Nazara Technologies Ltd.</t>
   </si>
   <si>
+    <t>NAZARA</t>
+  </si>
+  <si>
     <t>Saregama India Ltd</t>
   </si>
   <si>
+    <t>SAREGAMA</t>
+  </si>
+  <si>
     <t>Network18 Media &amp; Investments Ltd.</t>
   </si>
   <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
     <t>Tips Music Ltd.</t>
   </si>
   <si>
+    <t>TIPSINDLTD</t>
+  </si>
+  <si>
     <t>D.B.Corp Ltd.</t>
   </si>
   <si>
+    <t>DBCORP</t>
+  </si>
+  <si>
     <t>Hathway Cable &amp; Datacom Ltd.</t>
   </si>
   <si>
+    <t>HATHWAY</t>
+  </si>
+  <si>
     <t>Prime Focus Ltd</t>
   </si>
   <si>
+    <t>PFOCUS</t>
+  </si>
+  <si>
     <t>Metal</t>
   </si>
   <si>
     <t>Tata Steel Ltd.</t>
   </si>
   <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
     <t>Hindalco Industries Ltd.</t>
   </si>
   <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
     <t>JSW Steel Ltd.</t>
   </si>
   <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
     <t>Vedanta Ltd.</t>
   </si>
   <si>
+    <t>VEDL</t>
+  </si>
+  <si>
     <t>Adani Enterprises Ltd.</t>
   </si>
   <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
     <t>Jindal Steel Ltd.</t>
   </si>
   <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
     <t>APL Apollo Tubes Ltd.</t>
   </si>
   <si>
+    <t>APLAPOLLO</t>
+  </si>
+  <si>
     <t>NMDC Ltd.</t>
   </si>
   <si>
+    <t>NMDC</t>
+  </si>
+  <si>
     <t>Jindal Stainless Ltd.</t>
   </si>
   <si>
+    <t>JSL</t>
+  </si>
+  <si>
     <t>National Aluminium Co. Ltd.</t>
   </si>
   <si>
+    <t>NATIONALUM</t>
+  </si>
+  <si>
     <t>OilGas</t>
   </si>
   <si>
     <t>Reliance Industries Ltd.</t>
   </si>
   <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
     <t>Oil &amp; Natural Gas Corporation Ltd.</t>
   </si>
   <si>
+    <t>ONGC</t>
+  </si>
+  <si>
     <t>Bharat Petroleum Corporation Ltd.</t>
   </si>
   <si>
+    <t>BPCL</t>
+  </si>
+  <si>
     <t>Indian Oil Corporation Ltd.</t>
   </si>
   <si>
+    <t>IOC</t>
+  </si>
+  <si>
     <t>GAIL (India) Ltd.</t>
   </si>
   <si>
+    <t>GAIL</t>
+  </si>
+  <si>
     <t>Hindustan Petroleum Corporation Ltd.</t>
   </si>
   <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
     <t>Oil India Ltd.</t>
   </si>
   <si>
+    <t>OIL</t>
+  </si>
+  <si>
     <t>Petronet LNG Ltd.</t>
   </si>
   <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
     <t>Adani Total Gas Ltd.</t>
   </si>
   <si>
+    <t>ATGL</t>
+  </si>
+  <si>
     <t>Indraprastha Gas Ltd.</t>
   </si>
   <si>
+    <t>IGL</t>
+  </si>
+  <si>
     <t>Pharma</t>
   </si>
   <si>
     <t>Aurobindo Pharma Ltd.</t>
   </si>
   <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
     <t>Alkem Laboratories Ltd.</t>
   </si>
   <si>
+    <t>ALKEM</t>
+  </si>
+  <si>
     <t>Glenmark Pharmaceuticals Ltd.</t>
   </si>
   <si>
-    <t>PrivateBank</t>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>AU Small Finance Bank Ltd.</t>
   </si>
   <si>
     <t>HDFC Bank Ltd.</t>
   </si>
   <si>
+    <t>ICICI Bank Ltd.</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
     <t>Axis Bank Ltd.</t>
   </si>
   <si>
-    <t>ICICI Bank Ltd.</t>
-  </si>
-  <si>
     <t>Kotak Mahindra Bank Ltd.</t>
   </si>
   <si>
@@ -345,277 +586,28 @@
     <t>IndusInd Bank Ltd.</t>
   </si>
   <si>
-    <t>Yes Bank Ltd.</t>
-  </si>
-  <si>
-    <t>RBL Bank Ltd.</t>
-  </si>
-  <si>
-    <t>Bandhan Bank Ltd.</t>
-  </si>
-  <si>
-    <t>PSUBank</t>
-  </si>
-  <si>
-    <t>State Bank of India</t>
-  </si>
-  <si>
     <t>Bank of Baroda</t>
   </si>
   <si>
-    <t>Canara Bank</t>
-  </si>
-  <si>
-    <t>Punjab National Bank</t>
-  </si>
-  <si>
-    <t>Indian Bank</t>
-  </si>
-  <si>
-    <t>Union Bank of India</t>
-  </si>
-  <si>
-    <t>Bank of India</t>
-  </si>
-  <si>
-    <t>Bank of Maharashtra</t>
-  </si>
-  <si>
-    <t>Indian Overseas Bank</t>
-  </si>
-  <si>
-    <t>Central Bank of India</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>EICHERMOT</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>TVSMOTOR</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>MOTHERSON</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>SOLARINDS</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>COROMANDEL</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>MCDOWELL-N</t>
-  </si>
-  <si>
-    <t>MARICO</t>
-  </si>
-  <si>
-    <t>COLPAL</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>MAXHEALTH</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>PERSISTENT</t>
-  </si>
-  <si>
-    <t>COFORGE</t>
-  </si>
-  <si>
-    <t>LTIM</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>PVRINOX</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>NAZARA</t>
-  </si>
-  <si>
-    <t>SAREGAMA</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>TIPSINDLTD</t>
-  </si>
-  <si>
-    <t>DBCORP</t>
-  </si>
-  <si>
-    <t>HATHWAY</t>
-  </si>
-  <si>
-    <t>PFOCUS</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>APLAPOLLO</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>JSL</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
+    <t>AUBANK</t>
   </si>
   <si>
     <t>HDFCBANK</t>
   </si>
   <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
     <t>AXISBANK</t>
   </si>
   <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
     <t>KOTAKBANK</t>
   </si>
   <si>
-    <t>FEDERALBNK</t>
+    <t>FEDERALBANK</t>
   </si>
   <si>
     <t>IDFCFIRSTB</t>
@@ -624,73 +616,7 @@
     <t>INDUSINDBK</t>
   </si>
   <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>BANDHANBNK</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
     <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>CANBK</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>INDIANB</t>
-  </si>
-  <si>
-    <t>UNIONBANK</t>
-  </si>
-  <si>
-    <t>BOI</t>
-  </si>
-  <si>
-    <t>MAHABANK</t>
-  </si>
-  <si>
-    <t>IOB</t>
-  </si>
-  <si>
-    <t>CENTRALBK</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
-    <t>ATGL</t>
-  </si>
-  <si>
-    <t>IGL</t>
   </si>
 </sst>
 </file>
@@ -709,6 +635,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1053,21 +980,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1089,1536 +1016,1396 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>24.55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>16.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7.83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>7.66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>5.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>4.33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>3.72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>12.39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>11.76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>11.32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>9.34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>8.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>6.93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>5.78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>3.85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>33.979999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>18.75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>7.81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>5.9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>5.45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>3.86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>3.62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>3.27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="D32">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>8.69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D35">
         <v>8.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>7.91</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D37">
         <v>7.43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="D38">
         <v>5.43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>4.84</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>3.79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D41">
         <v>3.77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>28.26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>21.84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>11.42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>9.01</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <v>6.84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D47">
         <v>6.32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>5.92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <v>5.25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D50">
         <v>3.13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D51">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D52">
         <v>23.03</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D54">
         <v>13.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="D55">
         <v>13.28</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D57">
         <v>7.79</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>6.04</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>3.15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D60">
         <v>1.52</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="D61">
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="D62">
         <v>19.88</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D63">
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D64">
         <v>14.86</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D65">
         <v>11.01</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="D66">
         <v>8.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="D67">
         <v>5.24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D68">
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="D69">
         <v>3.44</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>3.18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <v>2.76</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="D72">
         <v>33.42</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D73">
         <v>14.86</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="D74">
         <v>10.36</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="D75">
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="D76">
         <v>7.38</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D77">
         <v>6.85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="D78">
         <v>3.54</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="D79">
         <v>3.16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="D80">
         <v>2.62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D81">
         <v>2.23</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="D82">
         <v>22.19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="D83">
         <v>10.66</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D84">
         <v>10.51</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D85">
         <v>9.09</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D86">
         <v>5.91</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D87">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D88">
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D89">
         <v>3.97</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D90">
         <v>3.86</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D91">
         <v>3.55</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
         <v>190</v>
       </c>
       <c r="D92">
-        <v>21.02</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>191</v>
       </c>
       <c r="D93">
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
         <v>192</v>
       </c>
       <c r="D94">
-        <v>19.77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
         <v>193</v>
       </c>
       <c r="D95">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
         <v>194</v>
       </c>
       <c r="D96">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
         <v>195</v>
       </c>
       <c r="D97">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
         <v>196</v>
       </c>
       <c r="D98">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
         <v>197</v>
       </c>
       <c r="D99">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
         <v>198</v>
       </c>
       <c r="D100">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D101">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" t="s">
-        <v>200</v>
-      </c>
-      <c r="D102">
-        <v>32.44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" t="s">
-        <v>202</v>
-      </c>
-      <c r="D104">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>113</v>
-      </c>
-      <c r="C107" t="s">
-        <v>205</v>
-      </c>
-      <c r="D107">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" t="s">
-        <v>207</v>
-      </c>
-      <c r="D109">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" t="s">
-        <v>208</v>
-      </c>
-      <c r="D110">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>117</v>
-      </c>
-      <c r="C111" t="s">
-        <v>209</v>
-      </c>
-      <c r="D111">
-        <v>1.0900000000000001</v>
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>
